--- a/biology/Zoologie/Anomoeotidae/Anomoeotidae.xlsx
+++ b/biology/Zoologie/Anomoeotidae/Anomoeotidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Anomoeotidae sont une famille de lépidoptères (papillons) de la super-famille des Zygaenoidea.
-La systématique de ce taxon est encore imparfaitement comprise : il était autrefois considéré comme une sous-famille de la famille des Zygaenidae, et certains auteurs récents le traitent comme une sous-famille des Himantopteridae[1].
+La systématique de ce taxon est encore imparfaitement comprise : il était autrefois considéré comme une sous-famille de la famille des Zygaenidae, et certains auteurs récents le traitent comme une sous-famille des Himantopteridae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>D'après LepIndex  (2 mars 2019)[2], cette famille est constituée des six genres valides suivants :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>D'après LepIndex  (2 mars 2019), cette famille est constituée des six genres valides suivants :
 Akesina Moore, 1888
 Anomoeotes Felder, 1874
 Dianeura Butler, 1888
